--- a/xlsx/印第安纳州_intext.xlsx
+++ b/xlsx/印第安纳州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="536">
   <si>
     <t>印第安纳州</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_印第安纳州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_印第安纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印地安納波利斯</t>
+    <t>印地安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Indiana</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%C2%B7%E5%94%90%E7%B4%8D%E5%88%A9</t>
   </si>
   <si>
-    <t>喬·唐納利</t>
+    <t>乔·唐纳利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -209,13 +209,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%87%E6%96%AF%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>埃文斯維爾</t>
+    <t>埃文斯维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%A2%86%E5%9C%B0</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF500</t>
   </si>
   <si>
-    <t>印第安納波利斯500</t>
+    <t>印第安纳波利斯500</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%B0%E9%97%BB%E4%B8%8E%E4%B8%96%E7%95%8C%E6%8A%A5%E9%81%93</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普渡大學</t>
+    <t>普渡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
@@ -329,13 +326,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖母大學</t>
+    <t>圣母大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%89%B9%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>巴特勒大學</t>
+    <t>巴特勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B0%94%E5%B8%95%E8%8E%B1%E7%B4%A2%E5%A4%A7%E5%AD%A6</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%87%A1%E6%96%AF%E7%B6%AD%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊凡斯維爾大學</t>
+    <t>伊凡斯维尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>冰河時期</t>
+    <t>冰河时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E9%BD%92%E8%B1%A1</t>
   </si>
   <si>
-    <t>乳齒象</t>
+    <t>乳齿象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E5%85%B0%E6%9C%9F</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%81%A9%E5%A0%A1</t>
   </si>
   <si>
-    <t>韋恩堡</t>
+    <t>韦恩堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E6%B9%96</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>法國印第安戰爭</t>
+    <t>法国印第安战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E4%B8%AA%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>伊利諾伊領地</t>
+    <t>伊利诺伊领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%87%8C%E7%99%BB_(%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E)</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%8A%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國舊西部</t>
+    <t>美国旧西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7W%C2%B7%E8%B2%BB%E7%88%BE%E7%8F%AD%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>查爾斯·W·費爾班克斯</t>
+    <t>查尔斯·W·费尔班克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%BE%B7%E7%88%BE%C2%B7%E5%A8%81%E7%88%BE%E5%9F%BA</t>
   </si>
   <si>
-    <t>溫德爾·威爾基</t>
+    <t>温德尔·威尔基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -737,85 +734,85 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
+    <t>2010年美国人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
@@ -833,33 +830,24 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
   </si>
   <si>
@@ -875,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E9%81%9C%E7%B8%A3</t>
   </si>
   <si>
-    <t>約翰遜縣</t>
+    <t>约翰逊县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%80%83%E5%85%8B%E7%B8%A3</t>
   </si>
   <si>
-    <t>漢考克縣</t>
+    <t>汉考克县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90</t>
@@ -899,13 +887,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E6%9C%83</t>
   </si>
   <si>
-    <t>路德會</t>
+    <t>路德会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
@@ -917,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>衛理公會</t>
+    <t>卫理公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%B3%95%E8%91%89_(%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉法葉 (印第安納州)</t>
+    <t>拉法叶 (印第安纳州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E6%81%A9%E5%A0%A1_(%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E)</t>
@@ -935,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C_(%E5%8D%B0%E5%9C%B0%E5%AE%89%E7%B4%8D%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加里 (印地安納州)</t>
+    <t>加里 (印地安纳州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -947,19 +935,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>印第安納州立大學</t>
+    <t>印第安纳州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>印第安納大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%A4%A7%E5%AD%B8%E8%A5%BF%E5%8C%97%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>印第安納大學西北分校</t>
+    <t>印第安纳大学西北分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%A4%A7%E5%AD%A6%E4%B8%8E%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%A6%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E6%B3%A2%E5%88%A9%E6%96%AF%E8%81%94%E5%90%88%E5%88%86%E6%A0%A1</t>
@@ -971,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%BA%A6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普度大學</t>
+    <t>普度大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>基督學院</t>
+    <t>基督学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%91%A9%E5%A4%A7%E5%AD%A6</t>
@@ -989,31 +974,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8D%81%E5%AD%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖十字學院</t>
+    <t>圣十字学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>印第安納理工學院</t>
+    <t>印第安纳理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E4%BC%AF%E8%A5%BF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>瓦伯西學院</t>
+    <t>瓦伯西学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF%E8%81%AF%E5%90%88%E8%BB%8A%E7%AB%99</t>
   </si>
   <si>
-    <t>印第安納波利斯聯合車站</t>
+    <t>印第安纳波利斯联合车站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%90%B5</t>
   </si>
   <si>
-    <t>美國國鐵</t>
+    <t>美国国铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD%E7%89%B9%E5%BF%AB</t>
@@ -1025,13 +1010,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%A1%A3%E4%B8%BB%E6%95%99%E8%99%9F</t>
   </si>
   <si>
-    <t>紅衣主教號</t>
+    <t>红衣主教号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E9%82%A3%E5%B7%9E%E8%99%9F</t>
   </si>
   <si>
-    <t>印第安那州號</t>
+    <t>印第安那州号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%8B%A4%E5%88%97%E8%BD%A6</t>
@@ -1043,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9C%AC%E5%BE%B7_(%E5%8D%B0%E5%9C%B0%E5%AE%89%E7%B4%8D%E5%B7%9E)</t>
   </si>
   <si>
-    <t>南本德 (印地安納州)</t>
+    <t>南本德 (印地安纳州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E6%B3%A2%E5%88%A9%E6%96%AF%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1061,37 +1046,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>路易維爾</t>
+    <t>路易维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93</t>
   </si>
   <si>
-    <t>聖路易</t>
+    <t>圣路易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/65%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>65號州際公路</t>
+    <t>65号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B7%9E%E6%94%B6%E8%B2%BB%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>印州收費公路</t>
+    <t>印州收费公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/69%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -1109,31 +1091,31 @@
     <t>https://zh.wikipedia.org/wiki/70%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>70號州際公路</t>
+    <t>70号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/74%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>74號州際公路</t>
+    <t>74号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/94%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>94號州際公路</t>
+    <t>94号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/465%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>465號州際公路</t>
+    <t>465号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/865%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>865號州際公路</t>
+    <t>865号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFL</t>
@@ -1145,9 +1127,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF%E5%B0%8F%E9%A6%AC</t>
   </si>
   <si>
-    <t>印第安納波利斯小馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
   </si>
   <si>
@@ -1157,25 +1136,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E6%B5%B7%E7%9B%9C</t>
   </si>
   <si>
-    <t>匹茲堡海盜</t>
+    <t>匹兹堡海盗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>聖地牙哥教士</t>
+    <t>圣地牙哥教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%9F%BF%E5%B0%BE%E8%9B%87</t>
   </si>
   <si>
-    <t>亞利桑那響尾蛇</t>
+    <t>亚利桑那响尾蛇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -1193,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E7%8B%82%E7%86%B1</t>
   </si>
   <si>
-    <t>印第安納狂熱</t>
+    <t>印第安纳狂热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F1</t>
@@ -1211,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%87%A1%E6%96%AF%E7%BB%B4%E5%B0%94</t>
@@ -1229,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%E5%82%91%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>麥可傑克森</t>
+    <t>麦可杰克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%85%B0%E5%BE%B7%C2%B7%E6%A1%91%E5%BE%B7%E6%96%AF</t>
@@ -1241,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%BF%AA%E6%9E%97%E5%82%91</t>
   </si>
   <si>
-    <t>約翰·迪林傑</t>
+    <t>约翰·迪林杰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1259,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -1283,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -1301,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -1325,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1355,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -1379,13 +1358,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1403,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1445,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1457,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1505,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1523,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1535,19 +1514,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1565,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1577,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1589,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1601,25 +1580,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -2913,7 +2892,7 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
         <v>33</v>
@@ -2939,10 +2918,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2968,10 +2947,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>8</v>
@@ -2997,10 +2976,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3026,10 +3005,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3055,10 +3034,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -3084,10 +3063,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3113,10 +3092,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3142,10 +3121,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3171,10 +3150,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>7</v>
@@ -3200,10 +3179,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -3229,10 +3208,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3258,10 +3237,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3287,10 +3266,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3316,10 +3295,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3345,10 +3324,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3374,10 +3353,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3403,10 +3382,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3432,10 +3411,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -3461,10 +3440,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -3490,10 +3469,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
@@ -3519,10 +3498,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3548,10 +3527,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3577,10 +3556,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3606,10 +3585,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3635,10 +3614,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3664,10 +3643,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3693,10 +3672,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3722,10 +3701,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3751,10 +3730,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3780,10 +3759,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3809,10 +3788,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3838,10 +3817,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3867,10 +3846,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3896,10 +3875,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3925,10 +3904,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3954,10 +3933,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3983,10 +3962,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4012,10 +3991,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4041,10 +4020,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4070,10 +4049,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4099,10 +4078,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4128,10 +4107,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>6</v>
@@ -4157,10 +4136,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4186,10 +4165,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4215,10 +4194,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4244,10 +4223,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4273,10 +4252,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4302,10 +4281,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4331,10 +4310,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4360,10 +4339,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4389,10 +4368,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4418,10 +4397,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>11</v>
@@ -4447,10 +4426,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4476,10 +4455,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4505,10 +4484,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>10</v>
@@ -4534,10 +4513,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4563,10 +4542,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>15</v>
@@ -4592,10 +4571,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4621,10 +4600,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4650,10 +4629,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4679,10 +4658,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4708,10 +4687,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4737,10 +4716,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4766,10 +4745,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4795,10 +4774,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4824,10 +4803,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4853,10 +4832,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4882,10 +4861,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4911,10 +4890,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4940,10 +4919,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4969,10 +4948,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4998,10 +4977,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5027,10 +5006,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -5056,10 +5035,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5085,10 +5064,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5114,10 +5093,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5143,10 +5122,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5172,10 +5151,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5201,10 +5180,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5230,10 +5209,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5259,10 +5238,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5288,10 +5267,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5317,10 +5296,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5346,10 +5325,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5375,10 +5354,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5404,10 +5383,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5433,10 +5412,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5462,10 +5441,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5491,10 +5470,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5520,10 +5499,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5549,10 +5528,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5578,10 +5557,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5607,10 +5586,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5636,10 +5615,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5665,10 +5644,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5694,10 +5673,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5723,10 +5702,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5752,10 +5731,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5781,10 +5760,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5810,10 +5789,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5839,10 +5818,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5868,10 +5847,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5897,10 +5876,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5926,10 +5905,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5955,10 +5934,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5984,10 +5963,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>66</v>
+      </c>
+      <c r="F138" t="s">
         <v>67</v>
-      </c>
-      <c r="F138" t="s">
-        <v>68</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6013,10 +5992,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>163</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6042,10 +6021,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>165</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6071,10 +6050,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6100,10 +6079,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6129,10 +6108,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -6158,10 +6137,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6187,10 +6166,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6216,10 +6195,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6245,10 +6224,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -6274,10 +6253,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>102</v>
+      </c>
+      <c r="F148" t="s">
         <v>103</v>
-      </c>
-      <c r="F148" t="s">
-        <v>104</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6303,10 +6282,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6332,10 +6311,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6361,10 +6340,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6390,10 +6369,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6419,10 +6398,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6448,10 +6427,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>6</v>
@@ -6477,10 +6456,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6506,10 +6485,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>6</v>
@@ -6535,10 +6514,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6564,10 +6543,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="G158" t="n">
         <v>13</v>
@@ -6593,10 +6572,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6622,10 +6601,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6651,10 +6630,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6680,10 +6659,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>7</v>
@@ -6709,10 +6688,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6738,10 +6717,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6767,10 +6746,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6796,10 +6775,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6825,10 +6804,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6854,10 +6833,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6883,10 +6862,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6912,10 +6891,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6941,10 +6920,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6970,10 +6949,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6999,10 +6978,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7028,10 +7007,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7057,10 +7036,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7086,10 +7065,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7115,10 +7094,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7144,10 +7123,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>4</v>
@@ -7173,10 +7152,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>227</v>
       </c>
       <c r="G179" t="n">
         <v>6</v>
@@ -7202,10 +7181,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7231,10 +7210,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7260,10 +7239,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>6</v>
@@ -7289,10 +7268,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7318,10 +7297,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7347,10 +7326,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7376,10 +7355,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7405,10 +7384,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7434,10 +7413,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7463,10 +7442,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7492,10 +7471,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>64</v>
+      </c>
+      <c r="F190" t="s">
         <v>65</v>
-      </c>
-      <c r="F190" t="s">
-        <v>66</v>
       </c>
       <c r="G190" t="n">
         <v>14</v>
@@ -7521,10 +7500,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7550,10 +7529,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7579,10 +7558,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>89</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7608,10 +7587,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7637,10 +7616,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7666,10 +7645,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7695,10 +7674,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7724,10 +7703,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7753,10 +7732,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7782,10 +7761,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7811,10 +7790,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7840,10 +7819,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7869,10 +7848,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7898,10 +7877,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -7927,10 +7906,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>4</v>
@@ -7956,10 +7935,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -7985,10 +7964,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8014,10 +7993,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8043,10 +8022,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8072,10 +8051,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8101,10 +8080,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -8130,10 +8109,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8159,10 +8138,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>209</v>
@@ -8188,10 +8167,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8217,10 +8196,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8246,10 +8225,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8275,10 +8254,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8304,10 +8283,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8333,10 +8312,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8362,10 +8341,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8391,10 +8370,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8420,10 +8399,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8449,10 +8428,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8478,10 +8457,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8507,10 +8486,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8536,10 +8515,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8565,10 +8544,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8594,10 +8573,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8623,10 +8602,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>82</v>
+      </c>
+      <c r="F229" t="s">
         <v>83</v>
-      </c>
-      <c r="F229" t="s">
-        <v>84</v>
       </c>
       <c r="G229" t="n">
         <v>7</v>
@@ -8652,10 +8631,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8681,10 +8660,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8710,10 +8689,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8739,10 +8718,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8768,10 +8747,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>152</v>
+      </c>
+      <c r="F234" t="s">
         <v>153</v>
-      </c>
-      <c r="F234" t="s">
-        <v>154</v>
       </c>
       <c r="G234" t="n">
         <v>5</v>
@@ -8797,10 +8776,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8826,10 +8805,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G236" t="n">
         <v>5</v>
@@ -8855,10 +8834,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F237" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -8884,10 +8863,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8913,10 +8892,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8942,10 +8921,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8971,10 +8950,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9000,10 +8979,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9029,10 +9008,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9058,10 +9037,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>78</v>
+      </c>
+      <c r="F244" t="s">
         <v>79</v>
-      </c>
-      <c r="F244" t="s">
-        <v>80</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -9087,10 +9066,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9116,10 +9095,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9145,10 +9124,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>80</v>
+      </c>
+      <c r="F247" t="s">
         <v>81</v>
-      </c>
-      <c r="F247" t="s">
-        <v>82</v>
       </c>
       <c r="G247" t="n">
         <v>11</v>
@@ -9174,10 +9153,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F248" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9203,10 +9182,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F249" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9232,10 +9211,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>168</v>
+      </c>
+      <c r="F250" t="s">
         <v>169</v>
-      </c>
-      <c r="F250" t="s">
-        <v>170</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9261,10 +9240,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9290,10 +9269,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9319,10 +9298,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9348,10 +9327,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>84</v>
+      </c>
+      <c r="F254" t="s">
         <v>85</v>
-      </c>
-      <c r="F254" t="s">
-        <v>86</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9377,10 +9356,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9406,10 +9385,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9435,10 +9414,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9464,10 +9443,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F258" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9493,10 +9472,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F259" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9522,10 +9501,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F260" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9551,10 +9530,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F261" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9580,10 +9559,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F262" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9609,10 +9588,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F263" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9638,10 +9617,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9667,10 +9646,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9696,10 +9675,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9725,10 +9704,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9754,10 +9733,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9783,10 +9762,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9812,10 +9791,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9841,10 +9820,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9870,10 +9849,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9899,10 +9878,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9928,10 +9907,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9957,10 +9936,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -9986,10 +9965,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10015,10 +9994,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F277" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10044,10 +10023,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10073,10 +10052,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10102,10 +10081,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10131,10 +10110,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10160,10 +10139,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F282" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10189,10 +10168,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F283" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
